--- a/OOP2Curs/Semester_3/Lab1/Documents/Лист Microsoft Excel задание 1.xlsx
+++ b/OOP2Curs/Semester_3/Lab1/Documents/Лист Microsoft Excel задание 1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectsGit\OOP2Curs\OOP2.0\OOP2Curs\Semester_3\Lab1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#\OOP2.0\OOP2Curs\Semester_3\Lab1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B612981-7C8F-471A-84A3-16C54E179142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="BlackBox" sheetId="2" r:id="rId2"/>
     <sheet name="WhiteBox" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,9 +199,6 @@
     <t>(double.TryParse((Console.ReadLine()), out x)) = false</t>
   </si>
   <si>
-    <t>Проверка ввода коллличества значений x</t>
-  </si>
-  <si>
     <t>(int.TryParse((Console.ReadLine()), out numberOfRepeats)) = false</t>
   </si>
   <si>
@@ -272,11 +268,14 @@
   <si>
     <t>(double.TryParse((Console.ReadLine()), out x)) = true, IsErrorValue(2) = true</t>
   </si>
+  <si>
+    <t>Проверка ввода количества значений x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,6 +444,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,15 +463,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -871,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -885,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -899,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -913,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
@@ -927,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -941,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -955,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -969,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -983,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1003,10 +1002,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4E3A4-23BE-43F4-AF65-17C350E59ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -17715,7 +17714,7 @@
     </row>
     <row r="16" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -17736,7 +17735,7 @@
     </row>
     <row r="17" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -17768,7 +17767,7 @@
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -17790,7 +17789,7 @@
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -18105,6 +18104,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="M3:M4"/>
@@ -18114,26 +18122,17 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7F918-CE6B-4578-AF14-B6DCE6013302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18147,89 +18146,89 @@
         <v>15</v>
       </c>
       <c r="B1" s="16"/>
-      <c r="C1" s="22">
+      <c r="C1" s="18">
         <v>1</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="18">
         <v>2</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="18">
         <v>3</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="18">
         <v>4</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="18">
         <v>5</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="18">
         <v>6</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="18">
         <v>7</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="18">
         <v>8</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="18">
         <v>9</v>
       </c>
-      <c r="L1" s="22">
+      <c r="L1" s="18">
         <v>10</v>
       </c>
-      <c r="M1" s="22">
+      <c r="M1" s="18">
         <v>11</v>
       </c>
-      <c r="N1" s="22">
+      <c r="N1" s="18">
         <v>12</v>
       </c>
-      <c r="O1" s="22">
+      <c r="O1" s="18">
         <v>13</v>
       </c>
-      <c r="P1" s="22">
+      <c r="P1" s="18">
         <v>14</v>
       </c>
-      <c r="Q1" s="22">
+      <c r="Q1" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -18284,11 +18283,11 @@
       <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -18311,9 +18310,9 @@
       <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -18334,9 +18333,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>6</v>
@@ -18359,11 +18358,11 @@
       <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -18386,9 +18385,9 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -18409,9 +18408,9 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -18440,7 +18439,7 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -18465,9 +18464,9 @@
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -18492,9 +18491,9 @@
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -18516,7 +18515,7 @@
     </row>
     <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -18568,7 +18567,7 @@
     </row>
     <row r="17" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>33</v>
@@ -18631,16 +18630,18 @@
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="H1:H3"/>
@@ -18652,8 +18653,6 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="M1:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OOP2Curs/Semester_3/Lab1/Documents/Лист Microsoft Excel задание 1.xlsx
+++ b/OOP2Curs/Semester_3/Lab1/Documents/Лист Microsoft Excel задание 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#\OOP2.0\OOP2Curs\Semester_3\Lab1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectsGit\OOP2Curs\OOP2.0\OOP2Curs\Semester_3\Lab1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EC233-EAB1-467F-A04F-9A60C9EB64A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -263,19 +264,22 @@
     <t>(int.TryParse((Console.ReadLine()), out m)) = false</t>
   </si>
   <si>
-    <t>n =3 m = 1</t>
-  </si>
-  <si>
     <t>(double.TryParse((Console.ReadLine()), out x)) = true, IsErrorValue(2) = true</t>
   </si>
   <si>
     <t>Проверка ввода количества значений x</t>
   </si>
+  <si>
+    <t>m = 1</t>
+  </si>
+  <si>
+    <t>n = 3 m = 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,9 +412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +431,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,11 +748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -1002,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1097,7 @@
       <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1109,7 +1113,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1119,7 +1123,7 @@
       </c>
     </row>
     <row r="6" spans="1:16384" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="2"/>
@@ -1133,7 +1137,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17509,7 +17513,7 @@
       <c r="XFD6" s="4"/>
     </row>
     <row r="7" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2"/>
@@ -17523,7 +17527,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -17531,10 +17535,10 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -17545,7 +17549,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -17553,15 +17557,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -17569,7 +17569,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -17579,43 +17579,47 @@
       </c>
     </row>
     <row r="10" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
+      <c r="A11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -17623,8 +17627,8 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
+      <c r="A12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -17632,12 +17636,12 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -17645,8 +17649,8 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
+      <c r="A13" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -17655,11 +17659,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -17667,8 +17671,8 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -17676,14 +17680,12 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -17691,8 +17693,8 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
+      <c r="A15" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -17700,21 +17702,23 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>57</v>
+      <c r="A16" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -17726,16 +17730,17 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>60</v>
+      <c r="A17" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -17743,31 +17748,20 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>58</v>
+      <c r="A18" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -17775,21 +17769,31 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>59</v>
+      <c r="A19" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -17802,157 +17806,120 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12">
-        <v>3</v>
-      </c>
-      <c r="E23" s="12">
-        <v>4</v>
-      </c>
-      <c r="F23" s="12">
-        <v>5</v>
-      </c>
-      <c r="G23" s="12">
-        <v>6</v>
-      </c>
-      <c r="H23" s="12">
-        <v>7</v>
-      </c>
-      <c r="I23" s="12">
-        <v>8</v>
-      </c>
-      <c r="J23" s="12">
-        <v>9</v>
-      </c>
-      <c r="K23" s="12">
-        <v>10</v>
-      </c>
-      <c r="L23" s="12">
-        <v>11</v>
-      </c>
-      <c r="M23" s="12">
-        <v>12</v>
-      </c>
-      <c r="N23" s="12">
-        <v>13</v>
-      </c>
-      <c r="O23" s="12">
-        <v>14</v>
-      </c>
-      <c r="P23" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="H25" s="11">
+        <v>7</v>
+      </c>
+      <c r="I25" s="11">
+        <v>8</v>
+      </c>
+      <c r="J25" s="11">
+        <v>9</v>
+      </c>
+      <c r="K25" s="11">
+        <v>10</v>
+      </c>
+      <c r="L25" s="11">
+        <v>11</v>
+      </c>
+      <c r="M25" s="11">
+        <v>12</v>
+      </c>
+      <c r="N25" s="11">
+        <v>13</v>
+      </c>
+      <c r="O25" s="11">
+        <v>14</v>
+      </c>
+      <c r="P25" s="11">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
@@ -17963,7 +17930,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -17971,13 +17938,13 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -17985,7 +17952,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -17993,13 +17960,13 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -18007,7 +17974,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -18016,10 +17983,12 @@
     </row>
     <row r="30" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -18027,10 +17996,8 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -18038,47 +18005,29 @@
     </row>
     <row r="31" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="7"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -18086,14 +18035,10 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="K32" s="6"/>
       <c r="L32" s="2" t="s">
         <v>6</v>
       </c>
@@ -18102,17 +18047,74 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
+    <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="M3:M4"/>
@@ -18122,16 +18124,25 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -18234,388 +18245,388 @@
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -18630,13 +18641,6 @@
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
@@ -18653,6 +18657,13 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
